--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>507348.785374216</v>
+        <v>509053.5413884828</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514375</v>
+        <v>925399.3994514376</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5572563.744829688</v>
+        <v>5572563.744829689</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -680,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -713,13 +715,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V2" t="n">
-        <v>90.38893773807641</v>
-      </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,25 +740,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,13 +898,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -914,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -956,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X5" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -993,10 +995,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>34.67481985855918</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1069,16 +1071,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,64 +1144,64 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>220.8837963815379</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H8" t="n">
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I8" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1209,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1230,10 +1232,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1278,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>69.05674881342119</v>
       </c>
     </row>
     <row r="10">
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,31 +1369,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>11.86372679529251</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1433,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>116.325098768111</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1500,22 +1502,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1549,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1579,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1604,73 +1606,73 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C14" t="n">
+      <c r="X14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>3.265316057196634</v>
       </c>
       <c r="Y14" t="n">
         <v>241.0142888776591</v>
@@ -1686,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1734,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>103.7130553628817</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1853,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1892,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1920,16 +1922,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>26.23921687579555</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1971,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>34.66067414728066</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2062,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,76 +2080,76 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>212.2853856434421</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G20" t="n">
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,16 +2159,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2175,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>19.15541836171557</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
     </row>
     <row r="22">
@@ -2287,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2327,56 +2329,56 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
+        <v>240.2580556792261</v>
+      </c>
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
@@ -2384,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2409,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>43.81940748594928</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2451,19 +2453,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>96.52468151912586</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2485,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2558,70 +2560,70 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G26" t="n">
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,22 +2633,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2685,22 +2687,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>181.2921930499176</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2764,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,65 +2791,65 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
@@ -2858,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2925,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2937,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>83.03189205754171</v>
       </c>
     </row>
     <row r="31">
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3032,19 +3034,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3105,16 +3107,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>9.245357950761489</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3129,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3168,10 +3170,10 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>85.31372784089217</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3263,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
+      <c r="F35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3323,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>190.3453970742849</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3351,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3366,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3515,58 +3517,58 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>241.0142888776591</v>
@@ -3603,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>34.66067414728066</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3645,10 +3647,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3673,40 +3675,40 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3746,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3782,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3791,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3837,10 +3839,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3873,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>165.5971668681845</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3885,7 +3887,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3986,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4019,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="45">
@@ -4107,10 +4109,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>54.82907102477793</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4122,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T2" t="n">
-        <v>366.1018663125844</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U2" t="n">
-        <v>122.6530896684844</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V2" t="n">
-        <v>31.35113235729608</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W2" t="n">
-        <v>31.35113235729608</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="X2" t="n">
-        <v>31.35113235729608</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="Y2" t="n">
-        <v>31.35113235729608</v>
+        <v>40.6788758079141</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4413,10 +4415,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M3" t="n">
-        <v>383.2428491569326</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
         <v>473.4149733950735</v>
@@ -4431,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
         <v>41.77557929797318</v>
@@ -4504,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4604,13 +4606,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X5" t="n">
-        <v>730.8505943024719</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y5" t="n">
-        <v>730.8505943024719</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>452.9407326573341</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>452.9407326573341</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>452.9407326573341</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>452.9407326573341</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>306.4061746842191</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>167.6753492668346</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>54.30621367441391</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4668,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>452.9407326573341</v>
       </c>
     </row>
     <row r="7">
@@ -4717,13 +4719,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4893,7 +4895,7 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
         <v>964.0571555106362</v>
@@ -4926,7 +4928,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.3028637799077</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
         <v>19.28114311021272</v>
@@ -4984,28 +4986,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>499.3853800778592</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C11" t="n">
-        <v>499.3853800778592</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D11" t="n">
-        <v>499.3853800778592</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>499.3853800778592</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>499.3853800778592</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>255.9366034337592</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5066,25 +5068,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U11" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V11" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W11" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X11" t="n">
-        <v>499.3853800778592</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y11" t="n">
-        <v>499.3853800778592</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="12">
@@ -5094,7 +5096,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>136.7812428759814</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
         <v>19.28114311021272</v>
@@ -5127,13 +5129,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N12" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
         <v>964.0571555106362</v>
@@ -5148,22 +5150,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W12" t="n">
-        <v>720.6083788665362</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X12" t="n">
-        <v>512.7568786610034</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y12" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5215,34 +5217,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C14" t="n">
         <v>19.28114311021272</v>
@@ -5303,25 +5305,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>752.9257720901863</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X14" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y14" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="15">
@@ -5331,7 +5333,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
         <v>19.28114311021272</v>
@@ -5358,22 +5360,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M15" t="n">
-        <v>486.8488635328713</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N15" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5382,25 +5384,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>859.2964935279274</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>657.1098988866934</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>428.8862806230825</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V15" t="n">
-        <v>193.7341723913397</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W15" t="n">
-        <v>193.7341723913397</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X15" t="n">
-        <v>193.7341723913397</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y15" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5458,19 +5460,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
         <v>19.28114311021272</v>
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>749.627473042513</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C17" t="n">
-        <v>749.627473042513</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D17" t="n">
-        <v>749.627473042513</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E17" t="n">
-        <v>749.627473042513</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F17" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G17" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5540,25 +5542,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="T17" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U17" t="n">
-        <v>953.9655401424092</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V17" t="n">
-        <v>953.9655401424092</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W17" t="n">
-        <v>953.9655401424092</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X17" t="n">
-        <v>953.9655401424092</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y17" t="n">
-        <v>953.9655401424092</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="18">
@@ -5568,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.03527576299844</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="C18" t="n">
-        <v>20.03527576299844</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E18" t="n">
         <v>20.03527576299844</v>
@@ -5595,19 +5597,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>486.8488635328713</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N18" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5619,25 +5621,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>929.0463735436861</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>726.8597789024521</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>498.6361606388412</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>263.4840524070985</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>20.03527576299844</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.03527576299844</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="19">
@@ -5710,10 +5712,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5786,16 +5788,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y20" t="n">
-        <v>720.6083788665362</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>521.2549444941228</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>346.8019152129958</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>197.8675055517446</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>38.63005054628906</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>38.63005054628906</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>38.63005054628906</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5832,19 +5834,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>689.4702815141908</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V21" t="n">
-        <v>689.4702815141908</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W21" t="n">
-        <v>689.4702815141908</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X21" t="n">
-        <v>689.4702815141908</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y21" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>212.4775805350491</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>212.4775805350491</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>63.54317087379786</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>63.54317087379786</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>63.54317087379786</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6075,13 +6077,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6099,19 +6101,19 @@
         <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>360.2295980564601</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V24" t="n">
-        <v>262.7299197543128</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W24" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>380.6929175551172</v>
       </c>
     </row>
     <row r="25">
@@ -6121,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
         <v>19.28114311021272</v>
@@ -6175,22 +6177,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>612.718391167419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>612.718391167419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6306,19 +6308,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6333,22 +6335,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W27" t="n">
-        <v>964.0571555106362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X27" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
-        <v>780.9337281874871</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6412,10 +6414,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
         <v>19.28114311021272</v>
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>467.067986854209</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C29" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424092</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W29" t="n">
-        <v>953.9655401424092</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X29" t="n">
-        <v>953.9655401424092</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y29" t="n">
-        <v>710.516763498309</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="30">
@@ -6516,7 +6518,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C30" t="n">
         <v>19.28114311021272</v>
@@ -6543,22 +6545,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>304.2053859195205</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N30" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6573,19 +6575,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>913.4938269565423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>678.3417187247995</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W30" t="n">
-        <v>434.8929420806995</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X30" t="n">
-        <v>227.0414418751666</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="31">
@@ -6646,7 +6648,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
         <v>19.28114311021272</v>
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6727,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>501.9060370580465</v>
+        <v>203.827050448935</v>
       </c>
       <c r="C33" t="n">
-        <v>327.4530077769195</v>
+        <v>29.37402116780802</v>
       </c>
       <c r="D33" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>248.2447175439888</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M33" t="n">
-        <v>486.8488635328713</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W33" t="n">
-        <v>964.0571555106362</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X33" t="n">
-        <v>877.8816728430684</v>
+        <v>411.587349213889</v>
       </c>
       <c r="Y33" t="n">
-        <v>670.1213740781145</v>
+        <v>203.827050448935</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>761.6974622895962</v>
+      </c>
+      <c r="C35" t="n">
+        <v>761.6974622895962</v>
+      </c>
+      <c r="D35" t="n">
+        <v>761.6974622895962</v>
+      </c>
+      <c r="E35" t="n">
         <v>518.2486856454962</v>
       </c>
-      <c r="C35" t="n">
+      <c r="F35" t="n">
         <v>274.7999090013961</v>
-      </c>
-      <c r="D35" t="n">
-        <v>31.35113235729608</v>
-      </c>
-      <c r="E35" t="n">
-        <v>31.35113235729608</v>
-      </c>
-      <c r="F35" t="n">
-        <v>31.35113235729608</v>
       </c>
       <c r="G35" t="n">
         <v>31.35113235729608</v>
@@ -6971,13 +6973,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W35" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X35" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y35" t="n">
         <v>761.6974622895962</v>
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>23.90796037760316</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>23.90796037760316</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>23.90796037760316</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,46 +7022,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>259.0600686093459</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V36" t="n">
-        <v>23.90796037760316</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W36" t="n">
-        <v>23.90796037760316</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X36" t="n">
-        <v>23.90796037760316</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y36" t="n">
-        <v>23.90796037760316</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V38" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W38" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y38" t="n">
-        <v>477.1596022224361</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7260,10 +7262,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
         <v>781.4136778972854</v>
@@ -7278,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>929.0463735436861</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>726.8597789024521</v>
       </c>
       <c r="U39" t="n">
-        <v>913.4938269565423</v>
+        <v>498.6361606388412</v>
       </c>
       <c r="V39" t="n">
-        <v>678.3417187247995</v>
+        <v>263.4840524070985</v>
       </c>
       <c r="W39" t="n">
-        <v>434.8929420806995</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X39" t="n">
-        <v>227.0414418751666</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
         <v>829.5248650203655</v>
@@ -7354,28 +7356,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>251.810259228364</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C41" t="n">
-        <v>251.810259228364</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D41" t="n">
-        <v>251.810259228364</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E41" t="n">
-        <v>251.810259228364</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>251.810259228364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>251.810259228364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>495.259035872464</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>251.810259228364</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>251.810259228364</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X41" t="n">
-        <v>251.810259228364</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y41" t="n">
-        <v>251.810259228364</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7500,10 +7502,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7521,19 +7523,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>735.8335372470253</v>
+        <v>796.7872899872175</v>
       </c>
       <c r="V42" t="n">
-        <v>500.6814290152826</v>
+        <v>561.6351817554748</v>
       </c>
       <c r="W42" t="n">
-        <v>257.2326523711826</v>
+        <v>318.1864051113748</v>
       </c>
       <c r="X42" t="n">
-        <v>49.38115216564972</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="43">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D44" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E44" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X44" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y44" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="45">
@@ -7728,22 +7730,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N45" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7755,19 +7757,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470253</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V45" t="n">
-        <v>500.6814290152826</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W45" t="n">
-        <v>257.2326523711826</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X45" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y45" t="n">
         <v>20.03527576299844</v>
@@ -8061,13 +8063,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>222.4246658592332</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8219,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8541,10 +8543,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8693,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8775,16 +8777,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O12" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -9006,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,22 +9245,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>382.1386950879875</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9480,22 +9482,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9723,16 +9725,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9954,22 +9956,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10191,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>299.7328472056018</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>369.8307175917693</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10443,10 +10445,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10668,13 +10670,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10683,7 +10685,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10908,13 +10910,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11148,13 +11150,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O42" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O45" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>361.5500862927562</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22568,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22589,10 +22591,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22601,13 +22603,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>237.3633207320585</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22626,25 +22628,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>247.8610253924609</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22723,10 +22725,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22744,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22784,13 +22786,13 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22802,10 +22804,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22844,10 +22846,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X5" t="n">
-        <v>138.8566050823864</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22863,13 +22865,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -22881,10 +22883,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>54.7218129928559</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,13 +22910,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -22929,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22957,16 +22959,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23030,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>185.9922493601736</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23081,13 +23083,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23097,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -23118,10 +23120,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23166,7 +23168,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>136.6259469638832</v>
       </c>
     </row>
     <row r="10">
@@ -23197,7 +23199,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -23224,7 +23226,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23255,31 +23257,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>327.6110753204746</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23321,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>56.38340022020472</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23388,22 +23390,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23437,10 +23439,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,10 +23457,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23467,7 +23469,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>124.2586028933485</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23543,7 +23545,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23555,10 +23557,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
-        <v>366.4657846212724</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y14" t="n">
         <v>145.2236497783945</v>
@@ -23574,7 +23576,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23622,25 +23624,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>67.97011574095609</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23698,7 +23700,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23713,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>180.4391552345834</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23741,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23780,19 +23782,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>18.67467251196047</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23808,16 +23810,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>121.2058486888432</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23859,25 +23861,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>137.0224969565572</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23950,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23975,13 +23977,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24026,16 +24028,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,16 +24047,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24063,7 +24065,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>93.0800258747809</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>170.2754303037659</v>
       </c>
     </row>
     <row r="22">
@@ -24175,13 +24177,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24215,10 +24217,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24227,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,22 +24250,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>11.08759722861041</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24272,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24297,7 +24299,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>93.52410967726135</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24339,19 +24341,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>136.2759056302994</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24373,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G25" t="n">
         <v>167.9909793584588</v>
@@ -24415,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24446,16 +24448,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>142.397655977241</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24497,19 +24499,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24519,22 +24521,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24573,22 +24575,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>150.1070334262686</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>24.39050272738672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24652,13 +24654,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24677,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>135.0690668140378</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>179.6356836433646</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24731,10 +24733,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24746,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24813,7 +24815,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>175.8836868124218</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24825,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>122.6508037197626</v>
       </c>
     </row>
     <row r="31">
@@ -24886,10 +24888,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24920,19 +24922,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24965,10 +24967,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>219.8305335069347</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24993,16 +24995,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>138.1997076138773</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25017,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25056,10 +25058,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>120.4592573625853</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -25123,7 +25125,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25151,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25211,7 +25213,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>137.40686139585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25220,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>195.8925415817687</v>
       </c>
     </row>
     <row r="36">
@@ -25239,7 +25241,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>153.0645313606844</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25254,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25357,13 +25359,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>170.4484560200385</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>174.9274946967228</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25403,7 +25405,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25412,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25445,7 +25447,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25454,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
         <v>145.2236497783945</v>
@@ -25491,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25518,13 +25520,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>137.0224969565572</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25533,10 +25535,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25561,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25594,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25634,16 +25636,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>109.2709771587974</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25670,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25679,13 +25681,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25694,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25725,10 +25727,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25761,7 +25763,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>60.34421521279029</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25773,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25874,10 +25876,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>194.5906600982693</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25907,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25928,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="45">
@@ -25995,10 +25997,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>171.1123110561969</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26010,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>481925.495285936</v>
+        <v>481925.4952859362</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>481925.4952859362</v>
+        <v>481925.495285936</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>481925.4952859359</v>
+        <v>481925.4952859362</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>481925.495285936</v>
+        <v>481925.4952859362</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>481925.4952859362</v>
+        <v>481925.495285936</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>481925.4952859362</v>
+        <v>481925.495285936</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>481925.4952859359</v>
+        <v>481925.495285936</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="C2" t="n">
         <v>108004.4371453661</v>
@@ -26320,7 +26322,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="E2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="F2" t="n">
         <v>108004.437145366</v>
@@ -26338,16 +26340,16 @@
         <v>108004.437145366</v>
       </c>
       <c r="K2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="L2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="M2" t="n">
         <v>108004.4371453661</v>
       </c>
       <c r="N2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="O2" t="n">
         <v>108004.437145366</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26421,7 +26423,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="D4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="E4" t="n">
         <v>8547.111069342402</v>
@@ -26433,10 +26435,10 @@
         <v>8547.111069342402</v>
       </c>
       <c r="H4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="I4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="J4" t="n">
         <v>8547.111069342402</v>
@@ -26454,10 +26456,10 @@
         <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="P4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29593.37421928579</v>
+        <v>-29593.37421928571</v>
       </c>
       <c r="C6" t="n">
         <v>51176.05731226199</v>
       </c>
       <c r="D6" t="n">
-        <v>51176.05731226198</v>
+        <v>51176.05731226196</v>
       </c>
       <c r="E6" t="n">
-        <v>84803.657312262</v>
+        <v>84803.65731226196</v>
       </c>
       <c r="F6" t="n">
-        <v>84803.65731226196</v>
+        <v>84803.65731226197</v>
       </c>
       <c r="G6" t="n">
-        <v>84803.65731226196</v>
+        <v>84803.65731226197</v>
       </c>
       <c r="H6" t="n">
         <v>84803.65731226196</v>
       </c>
       <c r="I6" t="n">
-        <v>84803.65731226196</v>
+        <v>84803.65731226197</v>
       </c>
       <c r="J6" t="n">
-        <v>21743.71471315574</v>
+        <v>21743.7147131557</v>
       </c>
       <c r="K6" t="n">
-        <v>84803.65731226199</v>
+        <v>84803.65731226197</v>
       </c>
       <c r="L6" t="n">
-        <v>84803.65731226199</v>
+        <v>84803.65731226197</v>
       </c>
       <c r="M6" t="n">
         <v>84803.65731226199</v>
       </c>
       <c r="N6" t="n">
-        <v>84803.65731226199</v>
+        <v>84803.65731226196</v>
       </c>
       <c r="O6" t="n">
         <v>84803.65731226197</v>
       </c>
       <c r="P6" t="n">
-        <v>84803.65731226196</v>
+        <v>84803.65731226194</v>
       </c>
     </row>
   </sheetData>
@@ -34705,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34781,13 +34783,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -35261,10 +35263,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="O9" t="n">
         <v>113.3808631277494</v>
-      </c>
-      <c r="O9" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35495,16 +35497,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O12" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N12" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O12" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>240.0046611659691</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36133,7 +36135,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P20" t="n">
         <v>90.5657124162131</v>
@@ -36200,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N21" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36443,16 +36445,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,10 +37150,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>231.276337811895</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37163,10 +37165,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,13 +37390,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37628,13 +37630,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37868,13 +37870,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O42" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N45" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O45" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
